--- a/Second revision/RSL density plots/Holocene_All_minus_BL.xlsx
+++ b/Second revision/RSL density plots/Holocene_All_minus_BL.xlsx
@@ -534,10 +534,14 @@
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD24"/>
+      <selection activeCell="G2" sqref="G2:H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -585,10 +589,10 @@
         <v>75</v>
       </c>
       <c r="G2" s="7">
-        <v>0.20545944055944143</v>
+        <v>0.22763636363636386</v>
       </c>
       <c r="H2" s="6">
-        <v>0.28648664267149371</v>
+        <v>0.22334166651119966</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -611,10 +615,10 @@
         <v>118</v>
       </c>
       <c r="G3" s="8">
-        <v>0.15545944055944133</v>
+        <v>0.17763636363636376</v>
       </c>
       <c r="H3" s="4">
-        <v>0.28648664267149371</v>
+        <v>0.22334166651119966</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -637,10 +641,10 @@
         <v>107.5</v>
       </c>
       <c r="G4" s="7">
-        <v>0.13545944055944131</v>
+        <v>0.15763636363636374</v>
       </c>
       <c r="H4" s="6">
-        <v>0.28648664267149371</v>
+        <v>0.22334166651119966</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -663,10 +667,10 @@
         <v>87.5</v>
       </c>
       <c r="G5" s="8">
-        <v>8.5638993804129093E-3</v>
+        <v>1.9506746626687166E-2</v>
       </c>
       <c r="H5" s="4">
-        <v>0.21051852452980221</v>
+        <v>0.1171535434420177</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -689,10 +693,10 @@
         <v>98.5</v>
       </c>
       <c r="G6" s="7">
-        <v>-1.4361006195870996E-3</v>
+        <v>9.506746626687157E-3</v>
       </c>
       <c r="H6" s="6">
-        <v>0.21051852452980221</v>
+        <v>0.1171535434420177</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -715,10 +719,10 @@
         <v>65.5</v>
       </c>
       <c r="G7" s="8">
-        <v>0.11856389938041278</v>
+        <v>0.12950674662668704</v>
       </c>
       <c r="H7" s="4">
-        <v>0.21051852452980221</v>
+        <v>0.1171535434420177</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -741,10 +745,10 @@
         <v>65.5</v>
       </c>
       <c r="G8" s="7">
-        <v>3.8563899380412936E-2</v>
+        <v>4.9506746626687193E-2</v>
       </c>
       <c r="H8" s="6">
-        <v>0.21051852452980221</v>
+        <v>0.1171535434420177</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -767,10 +771,10 @@
         <v>109.5</v>
       </c>
       <c r="G9" s="4">
-        <v>0.13624999999999998</v>
+        <v>0.13625000000000004</v>
       </c>
       <c r="H9" s="4">
-        <v>0.21116691500896054</v>
+        <v>0.12355203020050551</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -793,10 +797,10 @@
         <v>83.5</v>
       </c>
       <c r="G10" s="6">
-        <v>0.21625000000000005</v>
+        <v>0.21625000000000011</v>
       </c>
       <c r="H10" s="6">
-        <v>0.21116691500896054</v>
+        <v>0.12355203020050551</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -819,10 +823,10 @@
         <v>66.5</v>
       </c>
       <c r="G11" s="4">
-        <v>0.49625000000000002</v>
+        <v>0.49625000000000008</v>
       </c>
       <c r="H11" s="4">
-        <v>0.28406243326846575</v>
+        <v>0.22663870844731407</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -848,7 +852,7 @@
         <v>0.53625000000000012</v>
       </c>
       <c r="H12" s="6">
-        <v>0.28406243326846575</v>
+        <v>0.22663870844731407</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -871,10 +875,10 @@
         <v>77.5</v>
       </c>
       <c r="G13" s="4">
-        <v>0.31624999999999992</v>
+        <v>0.3162500000000002</v>
       </c>
       <c r="H13" s="4">
-        <v>0.21700568194036202</v>
+        <v>0.12831642204591984</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
@@ -897,10 +901,10 @@
         <v>94.5</v>
       </c>
       <c r="G14" s="6">
-        <v>0.31624999999999992</v>
+        <v>0.3162500000000002</v>
       </c>
       <c r="H14" s="6">
-        <v>0.21700568194036202</v>
+        <v>0.12831642204591984</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -923,10 +927,10 @@
         <v>91.5</v>
       </c>
       <c r="G15" s="4">
-        <v>0.47625000000000017</v>
+        <v>0.47624999999999995</v>
       </c>
       <c r="H15" s="4">
-        <v>0.28842930848719511</v>
+        <v>0.22927080966984573</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -949,10 +953,10 @@
         <v>92.5</v>
       </c>
       <c r="G16" s="6">
-        <v>0.45625000000000016</v>
+        <v>0.45624999999999993</v>
       </c>
       <c r="H16" s="6">
-        <v>0.28842930848719511</v>
+        <v>0.22927080966984573</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -975,10 +979,10 @@
         <v>98.5</v>
       </c>
       <c r="G17" s="4">
-        <v>0.45625000000000016</v>
+        <v>0.45624999999999993</v>
       </c>
       <c r="H17" s="4">
-        <v>0.28842930848719511</v>
+        <v>0.22927080966984573</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">

--- a/Second revision/RSL density plots/Holocene_All_minus_BL.xlsx
+++ b/Second revision/RSL density plots/Holocene_All_minus_BL.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20357"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E2BAFA5-C893-4824-92F9-85DF54AA93E4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -147,8 +148,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,14 +172,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -189,12 +184,6 @@
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor theme="6" tint="0.79998168889431442"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor theme="6" tint="0.59999389629810485"/>
       </patternFill>
     </fill>
   </fills>
@@ -225,31 +214,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -530,11 +501,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:H17"/>
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -570,756 +541,756 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2">
         <v>4630</v>
       </c>
-      <c r="D2" s="5">
-        <v>30</v>
-      </c>
-      <c r="E2" s="5">
+      <c r="D2">
+        <v>30</v>
+      </c>
+      <c r="E2">
         <v>4869</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2">
         <v>75</v>
       </c>
-      <c r="G2" s="7">
-        <v>0.22763636363636386</v>
-      </c>
-      <c r="H2" s="6">
+      <c r="G2">
+        <v>0.19963636363636383</v>
+      </c>
+      <c r="H2">
         <v>0.22334166651119966</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3">
         <v>4910</v>
       </c>
-      <c r="D3" s="3">
-        <v>30</v>
-      </c>
-      <c r="E3" s="3">
+      <c r="D3">
+        <v>30</v>
+      </c>
+      <c r="E3">
         <v>5196</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3">
         <v>118</v>
       </c>
-      <c r="G3" s="8">
-        <v>0.17763636363636376</v>
-      </c>
-      <c r="H3" s="4">
+      <c r="G3">
+        <v>0.14963636363636373</v>
+      </c>
+      <c r="H3">
         <v>0.22334166651119966</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+      <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4">
         <v>3750</v>
       </c>
-      <c r="D4" s="5">
-        <v>30</v>
-      </c>
-      <c r="E4" s="5">
+      <c r="D4">
+        <v>30</v>
+      </c>
+      <c r="E4">
         <v>3692.5</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4">
         <v>107.5</v>
       </c>
-      <c r="G4" s="7">
-        <v>0.15763636363636374</v>
-      </c>
-      <c r="H4" s="6">
+      <c r="G4">
+        <v>0.12963636363636372</v>
+      </c>
+      <c r="H4">
         <v>0.22334166651119966</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5">
         <v>4970</v>
       </c>
-      <c r="D5" s="3">
-        <v>30</v>
-      </c>
-      <c r="E5" s="3">
+      <c r="D5">
+        <v>30</v>
+      </c>
+      <c r="E5">
         <v>5342.5</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5">
         <v>87.5</v>
       </c>
-      <c r="G5" s="8">
-        <v>1.9506746626687166E-2</v>
-      </c>
-      <c r="H5" s="4">
+      <c r="G5">
+        <v>-8.493253373312859E-3</v>
+      </c>
+      <c r="H5">
         <v>0.1171535434420177</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6">
         <v>5500</v>
       </c>
-      <c r="D6" s="5">
-        <v>30</v>
-      </c>
-      <c r="E6" s="5">
+      <c r="D6">
+        <v>30</v>
+      </c>
+      <c r="E6">
         <v>5868.5</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6">
         <v>98.5</v>
       </c>
-      <c r="G6" s="7">
-        <v>9.506746626687157E-3</v>
-      </c>
-      <c r="H6" s="6">
+      <c r="G6">
+        <v>-1.8493253373312868E-2</v>
+      </c>
+      <c r="H6">
         <v>0.1171535434420177</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7">
         <v>5160</v>
       </c>
-      <c r="D7" s="3">
-        <v>30</v>
-      </c>
-      <c r="E7" s="3">
+      <c r="D7">
+        <v>30</v>
+      </c>
+      <c r="E7">
         <v>5519.5</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7">
         <v>65.5</v>
       </c>
-      <c r="G7" s="8">
-        <v>0.12950674662668704</v>
-      </c>
-      <c r="H7" s="4">
+      <c r="G7">
+        <v>0.10150674662668702</v>
+      </c>
+      <c r="H7">
         <v>0.1171535434420177</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8">
         <v>5160</v>
       </c>
-      <c r="D8" s="5">
-        <v>30</v>
-      </c>
-      <c r="E8" s="5">
+      <c r="D8">
+        <v>30</v>
+      </c>
+      <c r="E8">
         <v>5519.5</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8">
         <v>65.5</v>
       </c>
-      <c r="G8" s="7">
-        <v>4.9506746626687193E-2</v>
-      </c>
-      <c r="H8" s="6">
+      <c r="G8">
+        <v>2.1506746626687168E-2</v>
+      </c>
+      <c r="H8">
         <v>0.1171535434420177</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9">
         <v>4730</v>
       </c>
-      <c r="D9" s="3">
-        <v>30</v>
-      </c>
-      <c r="E9" s="3">
+      <c r="D9">
+        <v>30</v>
+      </c>
+      <c r="E9">
         <v>4954.5</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9">
         <v>109.5</v>
       </c>
-      <c r="G9" s="4">
-        <v>0.13625000000000004</v>
-      </c>
-      <c r="H9" s="4">
-        <v>0.12355203020050551</v>
+      <c r="G9">
+        <v>0.13624999999999993</v>
+      </c>
+      <c r="H9">
+        <v>0.12355203020050591</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="A10" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10">
         <v>5560</v>
       </c>
-      <c r="D10" s="5">
-        <v>30</v>
-      </c>
-      <c r="E10" s="5">
+      <c r="D10">
+        <v>30</v>
+      </c>
+      <c r="E10">
         <v>5956.5</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10">
         <v>83.5</v>
       </c>
-      <c r="G10" s="6">
-        <v>0.21625000000000011</v>
-      </c>
-      <c r="H10" s="6">
-        <v>0.12355203020050551</v>
+      <c r="G10">
+        <v>0.21625</v>
+      </c>
+      <c r="H10">
+        <v>0.12355203020050591</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11">
         <v>5140</v>
       </c>
-      <c r="D11" s="3">
-        <v>30</v>
-      </c>
-      <c r="E11" s="3">
+      <c r="D11">
+        <v>30</v>
+      </c>
+      <c r="E11">
         <v>5509.5</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11">
         <v>66.5</v>
       </c>
-      <c r="G11" s="4">
-        <v>0.49625000000000008</v>
-      </c>
-      <c r="H11" s="4">
-        <v>0.22663870844731407</v>
+      <c r="G11">
+        <v>0.49624999999999997</v>
+      </c>
+      <c r="H11">
+        <v>0.22663870844731426</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="A12" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12">
         <v>5570</v>
       </c>
-      <c r="D12" s="5">
-        <v>30</v>
-      </c>
-      <c r="E12" s="5">
+      <c r="D12">
+        <v>30</v>
+      </c>
+      <c r="E12">
         <v>5970</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12">
         <v>89</v>
       </c>
-      <c r="G12" s="6">
-        <v>0.53625000000000012</v>
-      </c>
-      <c r="H12" s="6">
-        <v>0.22663870844731407</v>
+      <c r="G12">
+        <v>0.53625</v>
+      </c>
+      <c r="H12">
+        <v>0.22663870844731426</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="A13" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13">
         <v>5200</v>
       </c>
-      <c r="D13" s="3">
-        <v>30</v>
-      </c>
-      <c r="E13" s="3">
+      <c r="D13">
+        <v>30</v>
+      </c>
+      <c r="E13">
         <v>5550.5</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13">
         <v>77.5</v>
       </c>
-      <c r="G13" s="4">
-        <v>0.3162500000000002</v>
-      </c>
-      <c r="H13" s="4">
-        <v>0.12831642204591984</v>
+      <c r="G13">
+        <v>0.31625000000000009</v>
+      </c>
+      <c r="H13">
+        <v>0.12831642204592023</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="A14" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14">
         <v>4550</v>
       </c>
-      <c r="D14" s="5">
-        <v>30</v>
-      </c>
-      <c r="E14" s="5">
+      <c r="D14">
+        <v>30</v>
+      </c>
+      <c r="E14">
         <v>4740.5</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14">
         <v>94.5</v>
       </c>
-      <c r="G14" s="6">
-        <v>0.3162500000000002</v>
-      </c>
-      <c r="H14" s="6">
-        <v>0.12831642204591984</v>
+      <c r="G14">
+        <v>0.31625000000000009</v>
+      </c>
+      <c r="H14">
+        <v>0.12831642204592023</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
+      <c r="A15" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15">
         <v>4350</v>
       </c>
-      <c r="D15" s="3">
-        <v>30</v>
-      </c>
-      <c r="E15" s="3">
+      <c r="D15">
+        <v>30</v>
+      </c>
+      <c r="E15">
         <v>4488.5</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15">
         <v>91.5</v>
       </c>
-      <c r="G15" s="4">
-        <v>0.47624999999999995</v>
-      </c>
-      <c r="H15" s="4">
-        <v>0.22927080966984573</v>
+      <c r="G15">
+        <v>0.47624999999999984</v>
+      </c>
+      <c r="H15">
+        <v>0.22927080966984595</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="A16" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C16">
         <v>4320</v>
       </c>
-      <c r="D16" s="5">
-        <v>30</v>
-      </c>
-      <c r="E16" s="5">
+      <c r="D16">
+        <v>30</v>
+      </c>
+      <c r="E16">
         <v>4453.5</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F16">
         <v>92.5</v>
       </c>
-      <c r="G16" s="6">
-        <v>0.45624999999999993</v>
-      </c>
-      <c r="H16" s="6">
-        <v>0.22927080966984573</v>
+      <c r="G16">
+        <v>0.45624999999999982</v>
+      </c>
+      <c r="H16">
+        <v>0.22927080966984595</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="A17" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17">
         <v>3700</v>
       </c>
-      <c r="D17" s="3">
-        <v>30</v>
-      </c>
-      <c r="E17" s="3">
+      <c r="D17">
+        <v>30</v>
+      </c>
+      <c r="E17">
         <v>3614.5</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17">
         <v>98.5</v>
       </c>
-      <c r="G17" s="4">
-        <v>0.45624999999999993</v>
-      </c>
-      <c r="H17" s="4">
-        <v>0.22927080966984573</v>
+      <c r="G17">
+        <v>0.45624999999999982</v>
+      </c>
+      <c r="H17">
+        <v>0.22927080966984595</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
+      <c r="A18" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18">
         <v>5370</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18">
         <v>35</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18">
         <v>5746.5</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18">
         <v>109.5</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18">
         <v>0.386860010449321</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18">
         <v>0.12939999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="A19" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19">
         <v>5185</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19">
         <v>35</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19">
         <v>5537.5</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F19">
         <v>78.5</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19">
         <v>0.39686001044932101</v>
       </c>
-      <c r="H19" s="6">
+      <c r="H19">
         <v>0.12939999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B20" s="3" t="s">
+      <c r="A20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20">
         <v>5165</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20">
         <v>35</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20">
         <v>5521</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20">
         <v>72</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20">
         <v>0.41686001044932097</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20">
         <v>0.12939999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="A21" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21">
         <v>5325</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21">
         <v>35</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E21">
         <v>5686</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F21">
         <v>101</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G21">
         <v>0.42686001044932098</v>
       </c>
-      <c r="H21" s="6">
+      <c r="H21">
         <v>0.12939999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+      <c r="A22" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22">
         <v>4915</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22">
         <v>35</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22">
         <v>5193</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22">
         <v>131</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22">
         <v>0.10686001044932091</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22">
         <v>0.1094</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+      <c r="A23" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="5">
+      <c r="C23">
         <v>4940</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23">
         <v>40</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23">
         <v>5278</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F23">
         <v>150</v>
       </c>
-      <c r="G23" s="6">
+      <c r="G23">
         <v>0.19686001044932094</v>
       </c>
-      <c r="H23" s="6">
+      <c r="H23">
         <v>0.1094</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
+      <c r="A24" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24">
         <v>3920</v>
       </c>
-      <c r="D24" s="3">
-        <v>30</v>
-      </c>
-      <c r="E24" s="3">
+      <c r="D24">
+        <v>30</v>
+      </c>
+      <c r="E24">
         <v>3905</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24">
         <v>100</v>
       </c>
-      <c r="G24" s="4">
+      <c r="G24">
         <v>-1.8139989550679091E-2</v>
       </c>
-      <c r="H24" s="4">
+      <c r="H24">
         <v>0.1094</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+      <c r="A25" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25">
         <v>4645</v>
       </c>
-      <c r="D25" s="5">
-        <v>30</v>
-      </c>
-      <c r="E25" s="5">
+      <c r="D25">
+        <v>30</v>
+      </c>
+      <c r="E25">
         <v>4879</v>
       </c>
-      <c r="F25" s="5">
+      <c r="F25">
         <v>75</v>
       </c>
-      <c r="G25" s="6">
+      <c r="G25">
         <v>4.6860010449320907E-2</v>
       </c>
-      <c r="H25" s="6">
+      <c r="H25">
         <v>0.1094</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+      <c r="A26" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26">
         <v>4340</v>
       </c>
-      <c r="D26" s="3">
-        <v>30</v>
-      </c>
-      <c r="E26" s="3">
+      <c r="D26">
+        <v>30</v>
+      </c>
+      <c r="E26">
         <v>4479</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26">
         <v>88</v>
       </c>
-      <c r="G26" s="4">
+      <c r="G26">
         <v>1.6860010449320909E-2</v>
       </c>
-      <c r="H26" s="4">
+      <c r="H26">
         <v>0.1094</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+      <c r="A27" t="s">
         <v>37</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" t="s">
         <v>28</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27">
         <v>4330</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27">
         <v>35</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E27">
         <v>4466.5</v>
       </c>
-      <c r="F27" s="5">
+      <c r="F27">
         <v>103.5</v>
       </c>
-      <c r="G27" s="6">
+      <c r="G27">
         <v>-8.1399895506790894E-3</v>
       </c>
-      <c r="H27" s="6">
+      <c r="H27">
         <v>0.1094</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+      <c r="A28" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28">
         <v>4810</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28">
         <v>40</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28">
         <v>5106.5</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F28">
         <v>149.5</v>
       </c>
-      <c r="G28" s="4">
+      <c r="G28">
         <v>4.6860010449320907E-2</v>
       </c>
-      <c r="H28" s="4">
+      <c r="H28">
         <v>0.1094</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
+      <c r="A29" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29">
         <v>4940</v>
       </c>
-      <c r="D29" s="5">
+      <c r="D29">
         <v>35</v>
       </c>
-      <c r="E29" s="5">
+      <c r="E29">
         <v>5279</v>
       </c>
-      <c r="F29" s="5">
+      <c r="F29">
         <v>146</v>
       </c>
-      <c r="G29" s="6">
+      <c r="G29">
         <v>0.15686001044932091</v>
       </c>
-      <c r="H29" s="6">
+      <c r="H29">
         <v>0.1094</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+      <c r="A30" t="s">
         <v>40</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30">
         <v>5350</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30">
         <v>40</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E30">
         <v>5724</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F30">
         <v>118</v>
       </c>
-      <c r="G30" s="4">
+      <c r="G30">
         <v>0.34686001044932102</v>
       </c>
-      <c r="H30" s="4">
+      <c r="H30">
         <v>0.12939999999999999</v>
       </c>
     </row>
